--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1065622.869456024</v>
+        <v>-1067521.101560147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>604093.2685576567</v>
+        <v>202266.9608003574</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225.923118017048</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>215.1902387416848</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>171.8683408760953</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X4" t="n">
-        <v>152.7722677860024</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>349.1632710476854</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>187.8370056895553</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>129.1861670206719</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>160.4034471042927</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>92.00803688215818</v>
+        <v>38.9611585419612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>135.5947476878505</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>106.5655558091179</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>70.02468195575985</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>106.2810290538446</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>111.9679966130646</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.19837049413448</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>145.520986584798</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.8087383403609</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>115.216550257373</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>57.56452900498748</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>125.1104020794506</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692909</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463105</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337375</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415187</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
         <v>81.7791350527408</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>924.4350995402963</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>548.527081850681</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254486</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>525.1076803367275</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>525.1076803367275</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>525.1076803367275</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.7922583306645</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.990120852571</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1280.02760391216</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1280.02760391216</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>894.2393513139152</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>887.2938505647118</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>2035.589960916693</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>2035.589960916693</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296039</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>211.6471865296039</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1803.3088759247</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>1434.346358984288</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>1076.080660377538</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>1076.080660377538</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>665.0947555879304</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X8" t="n">
-        <v>2189.908715988822</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y8" t="n">
-        <v>2189.908715988822</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>635.1915732143555</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>635.1915732143555</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>635.1915732143555</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="V10" t="n">
-        <v>635.1915732143555</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="W10" t="n">
-        <v>635.1915732143555</v>
+        <v>432.0491721307175</v>
       </c>
       <c r="X10" t="n">
-        <v>635.1915732143555</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="Y10" t="n">
-        <v>635.1915732143555</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M12" t="n">
-        <v>1608.660951743751</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N12" t="n">
-        <v>1953.181607381369</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.935021465331</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P12" t="n">
-        <v>2384.578499078682</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W13" t="n">
-        <v>1056.413776344468</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.413776344468</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.6211972009382</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L15" t="n">
-        <v>1120.26893587578</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M15" t="n">
-        <v>1440.604255405482</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.124911043099</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1428.184268582387</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1428.184268582387</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U16" t="n">
-        <v>1139.055629795946</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V16" t="n">
-        <v>884.3711415900586</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W16" t="n">
-        <v>594.9539715530981</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X16" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>594.9539715530981</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>987.4051452743433</v>
       </c>
       <c r="M18" t="n">
-        <v>1442.339749591389</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.860405229007</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O18" t="n">
-        <v>2035.613819312969</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>563.1598612984388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5698,25 +5698,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1080.566582233417</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1080.566582233417</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V19" t="n">
-        <v>1080.566582233417</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>791.1494121964562</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>563.1598612984388</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.1598612984388</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5747,19 +5747,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5771,28 +5771,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>243.0706902632331</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>653.9609591077458</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341671</v>
+        <v>883.924064976095</v>
       </c>
       <c r="M21" t="n">
-        <v>1236.836466556558</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N21" t="n">
-        <v>2041.248044820709</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039406</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1481.544179149686</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1481.544179149686</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1481.544179149686</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1481.544179149686</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1226.859690943799</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>937.442520906838</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>709.4529700088207</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>709.4529700088207</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1138.699705022018</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M24" t="n">
-        <v>1138.699705022018</v>
+        <v>1442.796708849623</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>2247.208287113773</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2495.961701197735</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2495.961701197735</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1271.460813324402</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247858</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247858</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W25" t="n">
-        <v>674.7185717878251</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>674.7185717878251</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>453.925992644295</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>309.4092125432344</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028583</v>
+        <v>539.3723184115836</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.963989254138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.7003690904323</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="C28" t="n">
-        <v>562.7003690904323</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="D28" t="n">
-        <v>562.7003690904323</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="E28" t="n">
-        <v>562.7003690904323</v>
+        <v>155.3630803542126</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.712528333286</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X28" t="n">
-        <v>870.7229774352686</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.3488339206721</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,46 +6683,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6734,16 +6734,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.325632214049</v>
+        <v>539.3723184115837</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1307.740464804045</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,19 +6947,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>629.3975440735812</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.809122337732</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7154,34 +7154,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7193,13 +7193,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.325632214049</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1303.849659022847</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,37 +7345,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514081</v>
@@ -7433,25 +7433,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061687</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454148</v>
+        <v>990.9427979105845</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7655,13 +7655,13 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>436.8967109626376</v>
+        <v>273.1330478284592</v>
       </c>
       <c r="L45" t="n">
-        <v>1050.793780719526</v>
+        <v>887.0301175853479</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>887.0301175853479</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>184.1757005204057</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627458</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119858</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>201.7092951357254</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>325.8160833777353</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>82.51931018359532</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>114.4135333658824</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>85.95281337053871</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>179.9574425274731</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890387</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>127.8961280278434</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,16 +23938,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>115.2665320045447</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>174.2693557855127</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>92.76598190965832</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>106.61665673903</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.02324184157639</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>106.3310108010162</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>87.85651901794375</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.47425127264422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2.913225216616411e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>2.771116669464391e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>143682.3097262497</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>136860.1709081981</v>
@@ -26329,10 +26329,10 @@
         <v>136860.1709081981</v>
       </c>
       <c r="H2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="I2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
         <v>136860.1709081981</v>
@@ -26341,16 +26341,16 @@
         <v>143682.3097262491</v>
       </c>
       <c r="L2" t="n">
+        <v>143682.3097262493</v>
+      </c>
+      <c r="M2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="N2" t="n">
         <v>143682.3097262497</v>
       </c>
-      <c r="M2" t="n">
-        <v>143682.3097262494</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262494</v>
-      </c>
       <c r="O2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262494</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371267</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759102</v>
+        <v>787.7936905758811</v>
       </c>
       <c r="K4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189639</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="L4" t="n">
-        <v>23206.58093189641</v>
-      </c>
-      <c r="M4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002538</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-665276.1017008811</v>
+        <v>-665294.5954388155</v>
       </c>
       <c r="C6" t="n">
+        <v>-78235.9075177788</v>
+      </c>
+      <c r="D6" t="n">
         <v>-78235.90751777877</v>
       </c>
-      <c r="D6" t="n">
-        <v>-78235.90751777875</v>
-      </c>
       <c r="E6" t="n">
-        <v>-481074.9852079905</v>
+        <v>-481172.4443339626</v>
       </c>
       <c r="F6" t="n">
-        <v>44085.05126890565</v>
+        <v>43987.59214293338</v>
       </c>
       <c r="G6" t="n">
-        <v>44085.05126890559</v>
+        <v>43987.59214293346</v>
       </c>
       <c r="H6" t="n">
-        <v>44085.05126890563</v>
+        <v>43987.59214293346</v>
       </c>
       <c r="I6" t="n">
-        <v>44085.05126890563</v>
+        <v>43987.59214293347</v>
       </c>
       <c r="J6" t="n">
-        <v>-132338.1679236874</v>
+        <v>-132435.6270496595</v>
       </c>
       <c r="K6" t="n">
-        <v>-31744.88912938512</v>
+        <v>-31744.88912938518</v>
       </c>
       <c r="L6" t="n">
+        <v>22760.62297432753</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-112040.3922595093</v>
+      </c>
+      <c r="N6" t="n">
+        <v>22760.62297432791</v>
+      </c>
+      <c r="O6" t="n">
         <v>22760.62297432788</v>
       </c>
-      <c r="M6" t="n">
-        <v>-112040.3922595096</v>
-      </c>
-      <c r="N6" t="n">
-        <v>22760.62297432763</v>
-      </c>
-      <c r="O6" t="n">
-        <v>22760.62297432761</v>
-      </c>
       <c r="P6" t="n">
-        <v>-31744.88912938486</v>
+        <v>-31744.88912938499</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26738,40 +26738,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541001</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541001</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27051,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.8107236464326</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>154.5408619367842</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>66.09616283461703</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,19 +27588,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X4" t="n">
-        <v>72.93738760303475</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>64.6208989731096</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>181.8940949889137</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>11.18263959690384</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5980030001231</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>209.3276535741763</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,10 +28017,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>194.2738373598195</v>
+        <v>247.3207157000165</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,10 +31145,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31376,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31613,10 +31613,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
-        <v>73.87984549392718</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,16 +31838,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>275.92646717522</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -31856,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>171.3135836203298</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,16 +32075,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>386.0590603056891</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>6.554244047028476</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32096,16 +32096,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,43 +32306,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>372.2688744803118</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>111.3199910445496</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,31 +32543,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>148.0734588039824</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>385.8163295885748</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>236.6747845419274</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>48.06791269472077</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -33032,28 +33032,28 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
         <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>375.32167434882</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,25 +33491,25 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>214.3354758413624</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33521,13 +33521,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>213.9849829127208</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,43 +33965,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
         <v>76.06970478104647</v>
@@ -34211,19 +34211,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508805</v>
+        <v>359.5739821225211</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34232,7 +34232,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34375,7 +34375,7 @@
         <v>526.7962671304439</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565536</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927185</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540885</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647495</v>
@@ -34448,19 +34448,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>216.4869287318326</v>
+        <v>51.06908718215752</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358984</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34469,7 +34469,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>599.4974970032016</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
@@ -35504,13 +35504,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>241.4090972701574</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>618.3450258292741</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>330.1252738750101</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>604.5548400038967</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>295.8083522701565</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>147.3268674777245</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>709.3873594165564</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>468.9607500655123</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>118.1634263445484</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>46.33426154604671</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>592.1206839096353</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>626.5877491811051</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>446.6214413649474</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,16 +37233,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>537.5560127407024</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>70.36758305239208</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,22 +37628,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.129440800466</v>
+        <v>183.682049455717</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111007</v>
+        <v>707.5746443827413</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37944,16 +37944,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109071</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081117</v>
@@ -38032,7 +38032,7 @@
         <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502047</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>343.1107267700522</v>
+        <v>177.6928852203771</v>
       </c>
       <c r="L45" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.129440800466</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,16 +38181,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
